--- a/biology/Zoologie/Atelopus_sonsonensis/Atelopus_sonsonensis.xlsx
+++ b/biology/Zoologie/Atelopus_sonsonensis/Atelopus_sonsonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus sonsonensis est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus sonsonensis est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie. Elle se rencontre vers 1 500 m d'altitude dans la municipalité de Sonsón sur le versant est de la Cordillère Centrale.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus sonsonensis[2] mesure de 21 à 29 mm pour les mâles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus sonsonensis mesure de 21 à 29 mm pour les mâles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de sonson et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de sonson et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vélez-Rodriguez &amp; Ruiz-Carranza, 1997 :  Una nueva especie de Atelopus (Amphibia: Anura: Bufonidae) de la Cordillera Central, Colombia. Revista de la Academia Colombiana de Ciencias Exactas, Físicas y Naturales, vol. 21, no 81, p. 555–563 (texte intégral).</t>
         </is>
